--- a/biology/Médecine/Régime_sans_résidu/Régime_sans_résidu.xlsx
+++ b/biology/Médecine/Régime_sans_résidu/Régime_sans_résidu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_sans_r%C3%A9sidu</t>
+          <t>Régime_sans_résidu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle résidu une portion alimentaire n'ayant pas été digérée par l'intestin, non absorbable par l'organisme : il s'agit généralement de fibres alimentaires végétales, parfois animales. Un régime sans résidu, aussi connu sous les appellations de régime sans fibre et de diète hyporésiduelle, est un régime alimentaire prescrit dans le cadre de la préparation avant une endoscopie ou une coloscopie, ainsi que dans le traitement des poussées de certaines maladies intestinales. Il est conçu pour réduire la fréquence et le volume des selles, pour réguler le transit intestinal afin de réduire les risques d'irritation de la muqueuse du colon ou des intestins[1]. Il s'agit d’un régime déséquilibré induisant des carences alimentaires, ne devant être suivi que pour une courte période et sur prescription médicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle résidu une portion alimentaire n'ayant pas été digérée par l'intestin, non absorbable par l'organisme : il s'agit généralement de fibres alimentaires végétales, parfois animales. Un régime sans résidu, aussi connu sous les appellations de régime sans fibre et de diète hyporésiduelle, est un régime alimentaire prescrit dans le cadre de la préparation avant une endoscopie ou une coloscopie, ainsi que dans le traitement des poussées de certaines maladies intestinales. Il est conçu pour réduire la fréquence et le volume des selles, pour réguler le transit intestinal afin de réduire les risques d'irritation de la muqueuse du colon ou des intestins. Il s'agit d’un régime déséquilibré induisant des carences alimentaires, ne devant être suivi que pour une courte période et sur prescription médicale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_sans_r%C3%A9sidu</t>
+          <t>Régime_sans_résidu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le régime sans résidu strict</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les graines, noix et céréales complètes sont interdites, ainsi que les fruits et légumes.
 Les graisses cuites, fritures, sauces, charcuteries sont proscrites.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_sans_r%C3%A9sidu</t>
+          <t>Régime_sans_résidu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Le régime élargi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime élargi, ou pauvre en fibres, autorise les laitages et certains légumes et fruits cuits.
 L'autorisation des laitages se fait en fonction du but du régime ; en effet ils accélèrent le transit intestinal, en particulier pour le lait.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_sans_r%C3%A9sidu</t>
+          <t>Régime_sans_résidu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>La réintroduction des aliments interdits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une intervention chirurgicale, ou une poussée de la maladie de Crohn, les légumes et fruits doivent être réintroduits progressivement dans l'alimentation.
 Les légumes sont d'abord consommés cuits en potage et en purée en commençant par les moins riches en fibres (pommes de terre, carottes). De même, les fruits sont réintroduits d'abord en compote, au sirop, puis consommés bien mûrs (bananes, poires).
